--- a/socios.xlsx
+++ b/socios.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>pu</t>
+          <t>Luiz Fernando</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -476,7 +476,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>gianluca</t>
+          <t>Pedro Henrique</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -484,7 +484,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>JLP</t>
+          <t>GV</t>
         </is>
       </c>
       <c r="D3" t="b">
@@ -494,11 +494,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>dauluca</t>
+          <t>Gian Luca</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -512,11 +512,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sadsaokdsa</t>
+          <t>Dauluca</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>

--- a/socios.xlsx
+++ b/socios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Luiz Fernando</t>
+          <t>Luiz</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -466,7 +466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GV</t>
+          <t>JLP</t>
         </is>
       </c>
       <c r="D2" t="b">
@@ -476,7 +476,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pedro Henrique</t>
+          <t>Pedro</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -484,46 +484,10 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GV</t>
+          <t>JLP</t>
         </is>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Gian Luca</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>50</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>JLP</t>
-        </is>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Dauluca</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>50</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>JLP</t>
-        </is>
-      </c>
-      <c r="D5" t="b">
         <v>0</v>
       </c>
     </row>

--- a/socios.xlsx
+++ b/socios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Luiz</t>
+          <t>luiz</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -466,7 +466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>JLP</t>
+          <t>GV</t>
         </is>
       </c>
       <c r="D2" t="b">
@@ -476,7 +476,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pedro</t>
+          <t>pedro</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -484,10 +484,46 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>GV</t>
+        </is>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>joao</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>JLP</t>
         </is>
       </c>
-      <c r="D3" t="b">
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>lucas</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>50</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>JLP</t>
+        </is>
+      </c>
+      <c r="D5" t="b">
         <v>0</v>
       </c>
     </row>
